--- a/python_analysis/data/superflex/RedraftSFlex_August1_25.xlsx
+++ b/python_analysis/data/superflex/RedraftSFlex_August1_25.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjzachariason/Dropbox/Late-Round Fantasy Football/_Shared Drive/Patreon/Rankings/Redraft Rankings/08_2025/1st/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancontino/Desktop/volatile/python_analysis/data/superflex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20ADD9E-B088-224A-8FCD-278E9E1411F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B5A554-B6BE-134C-BC07-8F86D8585046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="7220" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{8B1390D6-95F4-C24A-B3AF-0CA9228166C8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{8B1390D6-95F4-C24A-B3AF-0CA9228166C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Read Me" sheetId="2" r:id="rId1"/>
-    <sheet name="Rankings and Tiers" sheetId="1" r:id="rId2"/>
+    <sheet name="Rankings and Tiers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rankings and Tiers'!$A$1:$E$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rankings and Tiers'!$A$1:$E$251</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="259">
   <si>
     <t>Overall</t>
   </si>
@@ -249,12 +248,6 @@
   </si>
   <si>
     <t>Dalton Schultz</t>
-  </si>
-  <si>
-    <t>By viewing this digital product, you agree that under no circumstances shall you use this digital product or any portion of this digital product for anything but your own personal use and reference. For the avoidance of doubt, you shall not copy, re-sell, sublicense, rent out, share or otherwise distribute this digital product, or any other Late-Round Fantasy Football digital product, whether modified or not, to any third party. You agree not to use any derivative of Late-Round Fantasy Football’s products in a way which might be detrimental to Late-Round Fantasy Football or damage Late-Round Fantasy Football’s reputation.</t>
-  </si>
-  <si>
-    <t>Terms</t>
   </si>
   <si>
     <t>Breece Hall</t>
@@ -828,55 +821,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -884,60 +845,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,90 +1170,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DB6E3E-D5DA-BE40-9DC0-94C04F4A8891}">
-  <dimension ref="B2:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="47.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="78" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="7" spans="2:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79AA84A-6624-1E4A-A0A6-C46EEDC7685B}">
   <dimension ref="A1:E251"/>
   <sheetViews>
@@ -1362,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1376,7 +1211,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1393,7 +1228,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1407,10 +1242,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -1427,7 +1262,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -1444,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1458,10 +1293,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1478,7 +1313,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1492,10 +1327,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -1512,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1529,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -1546,7 +1381,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -1563,7 +1398,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -1577,10 +1412,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -1594,10 +1429,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -1611,10 +1446,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -1631,7 +1466,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
@@ -1645,10 +1480,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
@@ -1662,10 +1497,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="1">
         <v>7</v>
@@ -1679,10 +1514,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1">
         <v>8</v>
@@ -1699,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1">
         <v>9</v>
@@ -1713,10 +1548,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -1729,11 +1564,11 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1">
         <v>7</v>
@@ -1746,11 +1581,11 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
@@ -1763,11 +1598,11 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>134</v>
+      <c r="B25" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1780,11 +1615,11 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>127</v>
+      <c r="B26" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1">
         <v>11</v>
@@ -1797,11 +1632,11 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>159</v>
+      <c r="B27" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27" s="1">
         <v>7</v>
@@ -1814,11 +1649,11 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>171</v>
+      <c r="B28" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
@@ -1831,11 +1666,11 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D29" s="1">
         <v>9</v>
@@ -1848,11 +1683,11 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>138</v>
+      <c r="B30" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D30" s="1">
         <v>10</v>
@@ -1865,11 +1700,11 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>148</v>
+      <c r="B31" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D31" s="1">
         <v>11</v>
@@ -1882,11 +1717,11 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>150</v>
+      <c r="B32" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" s="1">
         <v>8</v>
@@ -1899,11 +1734,11 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>132</v>
+      <c r="B33" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" s="1">
         <v>9</v>
@@ -1916,11 +1751,11 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
@@ -1933,11 +1768,11 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>114</v>
+      <c r="B35" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1">
         <v>12</v>
@@ -1950,11 +1785,11 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>177</v>
+      <c r="B36" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1">
         <v>13</v>
@@ -1967,11 +1802,11 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1">
         <v>14</v>
@@ -1984,11 +1819,11 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="1">
         <v>15</v>
@@ -2001,11 +1836,11 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="1">
         <v>11</v>
@@ -2018,11 +1853,11 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>116</v>
+      <c r="B40" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -2035,11 +1870,11 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>82</v>
+      <c r="B41" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1">
         <v>16</v>
@@ -2052,11 +1887,11 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>186</v>
+      <c r="B42" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1">
         <v>17</v>
@@ -2069,11 +1904,11 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>110</v>
+      <c r="B43" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1">
         <v>18</v>
@@ -2086,11 +1921,11 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>86</v>
+      <c r="B44" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1">
         <v>19</v>
@@ -2103,11 +1938,11 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45" s="1">
         <v>12</v>
@@ -2120,11 +1955,11 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D46" s="1">
         <v>13</v>
@@ -2137,11 +1972,11 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D47" s="1">
         <v>14</v>
@@ -2154,11 +1989,11 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>94</v>
+      <c r="B48" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" s="1">
         <v>15</v>
@@ -2171,11 +2006,11 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>163</v>
+      <c r="B49" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D49" s="1">
         <v>12</v>
@@ -2188,11 +2023,11 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>126</v>
+      <c r="B50" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D50" s="1">
         <v>20</v>
@@ -2205,11 +2040,11 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>200</v>
+      <c r="B51" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D51" s="1">
         <v>21</v>
@@ -2222,11 +2057,11 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>73</v>
+      <c r="B52" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1">
         <v>16</v>
@@ -2239,11 +2074,11 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>72</v>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1">
         <v>13</v>
@@ -2256,11 +2091,11 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>124</v>
+      <c r="B54" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D54" s="1">
         <v>14</v>
@@ -2273,11 +2108,11 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>77</v>
+      <c r="B55" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1">
         <v>15</v>
@@ -2290,11 +2125,11 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>79</v>
+      <c r="B56" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D56" s="1">
         <v>16</v>
@@ -2307,11 +2142,11 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D57" s="1">
         <v>3</v>
@@ -2324,11 +2159,11 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>192</v>
+      <c r="B58" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D58" s="1">
         <v>22</v>
@@ -2341,11 +2176,11 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" s="1">
         <v>23</v>
@@ -2358,11 +2193,11 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>123</v>
+      <c r="B60" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D60" s="1">
         <v>17</v>
@@ -2375,11 +2210,11 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D61" s="1">
         <v>17</v>
@@ -2392,11 +2227,11 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D62" s="1">
         <v>18</v>
@@ -2409,11 +2244,11 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>133</v>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D63" s="1">
         <v>19</v>
@@ -2426,11 +2261,11 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D64" s="1">
         <v>20</v>
@@ -2443,11 +2278,11 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D65" s="1">
         <v>21</v>
@@ -2460,11 +2295,11 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D66" s="1">
         <v>18</v>
@@ -2477,11 +2312,11 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D67" s="1">
         <v>22</v>
@@ -2494,11 +2329,11 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>164</v>
+      <c r="B68" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D68" s="1">
         <v>23</v>
@@ -2511,11 +2346,11 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>76</v>
+      <c r="B69" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D69" s="1">
         <v>24</v>
@@ -2528,11 +2363,11 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>207</v>
+      <c r="B70" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D70" s="1">
         <v>24</v>
@@ -2545,11 +2380,11 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>100</v>
+      <c r="B71" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D71" s="1">
         <v>25</v>
@@ -2562,11 +2397,11 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>222</v>
+      <c r="B72" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D72" s="1">
         <v>26</v>
@@ -2579,11 +2414,11 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>113</v>
+      <c r="B73" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D73" s="1">
         <v>27</v>
@@ -2596,11 +2431,11 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>97</v>
+      <c r="B74" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D74" s="1">
         <v>28</v>
@@ -2613,11 +2448,11 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D75" s="1">
         <v>25</v>
@@ -2630,11 +2465,11 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>84</v>
+      <c r="B76" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D76" s="1">
         <v>26</v>
@@ -2647,11 +2482,11 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>108</v>
+      <c r="B77" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D77" s="1">
         <v>19</v>
@@ -2664,11 +2499,11 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D78" s="1">
         <v>27</v>
@@ -2681,11 +2516,11 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>166</v>
+      <c r="B79" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D79" s="1">
         <v>20</v>
@@ -2698,11 +2533,11 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D80" s="1">
         <v>28</v>
@@ -2715,11 +2550,11 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>92</v>
+      <c r="B81" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D81" s="1">
         <v>29</v>
@@ -2732,11 +2567,11 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>162</v>
+      <c r="B82" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D82" s="1">
         <v>21</v>
@@ -2749,11 +2584,11 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>165</v>
+      <c r="B83" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D83" s="1">
         <v>30</v>
@@ -2766,11 +2601,11 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>104</v>
+      <c r="B84" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D84" s="1">
         <v>31</v>
@@ -2783,11 +2618,11 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>160</v>
+      <c r="B85" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D85" s="1">
         <v>29</v>
@@ -2800,11 +2635,11 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D86" s="1">
         <v>22</v>
@@ -2817,11 +2652,11 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>96</v>
+      <c r="B87" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D87" s="1">
         <v>32</v>
@@ -2834,11 +2669,11 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D88" s="1">
         <v>23</v>
@@ -2851,11 +2686,11 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>75</v>
+      <c r="B89" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D89" s="1">
         <v>33</v>
@@ -2868,11 +2703,11 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>169</v>
+      <c r="B90" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D90" s="1">
         <v>34</v>
@@ -2885,11 +2720,11 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D91" s="1">
         <v>24</v>
@@ -2902,11 +2737,11 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>129</v>
+      <c r="B92" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D92" s="1">
         <v>35</v>
@@ -2919,11 +2754,11 @@
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>89</v>
+      <c r="B93" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D93" s="1">
         <v>25</v>
@@ -2936,11 +2771,11 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D94" s="1">
         <v>36</v>
@@ -2953,11 +2788,11 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D95" s="1">
         <v>37</v>
@@ -2970,11 +2805,11 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>101</v>
+      <c r="B96" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D96" s="1">
         <v>38</v>
@@ -2987,11 +2822,11 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D97" s="1">
         <v>26</v>
@@ -3004,11 +2839,11 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D98" s="1">
         <v>27</v>
@@ -3021,11 +2856,11 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D99" s="1">
         <v>39</v>
@@ -3038,11 +2873,11 @@
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D100" s="1">
         <v>40</v>
@@ -3055,11 +2890,11 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>146</v>
+      <c r="B101" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D101" s="1">
         <v>41</v>
@@ -3072,11 +2907,11 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>107</v>
+      <c r="B102" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D102" s="1">
         <v>42</v>
@@ -3089,11 +2924,11 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D103" s="1">
         <v>43</v>
@@ -3106,11 +2941,11 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>105</v>
+      <c r="B104" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D104" s="1">
         <v>4</v>
@@ -3123,11 +2958,11 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>93</v>
+      <c r="B105" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D105" s="1">
         <v>44</v>
@@ -3140,11 +2975,11 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>103</v>
+      <c r="B106" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D106" s="1">
         <v>28</v>
@@ -3157,11 +2992,11 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>170</v>
+      <c r="B107" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D107" s="1">
         <v>45</v>
@@ -3174,11 +3009,11 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>168</v>
+      <c r="B108" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D108" s="1">
         <v>29</v>
@@ -3191,11 +3026,11 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D109" s="1">
         <v>5</v>
@@ -3208,11 +3043,11 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>174</v>
+      <c r="B110" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D110" s="1">
         <v>46</v>
@@ -3225,11 +3060,11 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D111" s="1">
         <v>47</v>
@@ -3242,11 +3077,11 @@
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>137</v>
+      <c r="B112" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D112" s="1">
         <v>48</v>
@@ -3259,11 +3094,11 @@
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D113" s="1">
         <v>49</v>
@@ -3276,11 +3111,11 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>144</v>
+      <c r="B114" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D114" s="1">
         <v>30</v>
@@ -3293,11 +3128,11 @@
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D115" s="1">
         <v>50</v>
@@ -3310,11 +3145,11 @@
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>85</v>
+      <c r="B116" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D116" s="1">
         <v>31</v>
@@ -3327,11 +3162,11 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D117" s="1">
         <v>6</v>
@@ -3344,11 +3179,11 @@
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>175</v>
+      <c r="B118" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D118" s="1">
         <v>51</v>
@@ -3361,11 +3196,11 @@
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>178</v>
+      <c r="B119" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D119" s="1">
         <v>52</v>
@@ -3378,11 +3213,11 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D120" s="1">
         <v>32</v>
@@ -3395,11 +3230,11 @@
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D121" s="1">
         <v>33</v>
@@ -3412,11 +3247,11 @@
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>83</v>
+      <c r="B122" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D122" s="1">
         <v>7</v>
@@ -3429,11 +3264,11 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>173</v>
+      <c r="B123" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D123" s="1">
         <v>34</v>
@@ -3446,11 +3281,11 @@
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>176</v>
+      <c r="B124" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D124" s="1">
         <v>35</v>
@@ -3463,11 +3298,11 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>130</v>
+      <c r="B125" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D125" s="1">
         <v>53</v>
@@ -3480,11 +3315,11 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D126" s="1">
         <v>8</v>
@@ -3497,11 +3332,11 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>106</v>
+      <c r="B127" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D127" s="1">
         <v>54</v>
@@ -3514,11 +3349,11 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>172</v>
+      <c r="B128" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D128" s="1">
         <v>55</v>
@@ -3531,11 +3366,11 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D129" s="1">
         <v>56</v>
@@ -3548,11 +3383,11 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>179</v>
+      <c r="B130" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D130" s="1">
         <v>36</v>
@@ -3565,11 +3400,11 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D131" s="1">
         <v>37</v>
@@ -3582,11 +3417,11 @@
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>98</v>
+      <c r="B132" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D132" s="1">
         <v>38</v>
@@ -3599,11 +3434,11 @@
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>184</v>
+      <c r="B133" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D133" s="1">
         <v>39</v>
@@ -3616,11 +3451,11 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>81</v>
+      <c r="B134" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D134" s="1">
         <v>9</v>
@@ -3633,11 +3468,11 @@
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D135" s="1">
         <v>40</v>
@@ -3650,11 +3485,11 @@
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>109</v>
+      <c r="B136" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D136" s="1">
         <v>41</v>
@@ -3667,11 +3502,11 @@
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D137" s="1">
         <v>42</v>
@@ -3684,11 +3519,11 @@
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>181</v>
+      <c r="B138" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D138" s="1">
         <v>43</v>
@@ -3701,11 +3536,11 @@
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>185</v>
+      <c r="B139" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D139" s="1">
         <v>10</v>
@@ -3718,11 +3553,11 @@
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>182</v>
+      <c r="B140" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D140" s="1">
         <v>11</v>
@@ -3735,11 +3570,11 @@
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>252</v>
+      <c r="B141" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D141" s="1">
         <v>30</v>
@@ -3752,11 +3587,11 @@
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>112</v>
+      <c r="B142" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D142" s="1">
         <v>57</v>
@@ -3769,11 +3604,11 @@
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>167</v>
+      <c r="B143" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D143" s="1">
         <v>44</v>
@@ -3786,11 +3621,11 @@
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>199</v>
+      <c r="B144" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D144" s="1">
         <v>45</v>
@@ -3803,11 +3638,11 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>189</v>
+      <c r="B145" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D145" s="1">
         <v>12</v>
@@ -3820,11 +3655,11 @@
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>149</v>
+      <c r="B146" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D146" s="1">
         <v>46</v>
@@ -3837,11 +3672,11 @@
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>111</v>
+      <c r="B147" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D147" s="1">
         <v>47</v>
@@ -3854,11 +3689,11 @@
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D148" s="1">
         <v>13</v>
@@ -3871,11 +3706,11 @@
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>156</v>
+      <c r="B149" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D149" s="1">
         <v>48</v>
@@ -3888,11 +3723,11 @@
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D150" s="1">
         <v>58</v>
@@ -3905,11 +3740,11 @@
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>80</v>
+      <c r="B151" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D151" s="1">
         <v>49</v>
@@ -3922,11 +3757,11 @@
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>102</v>
+      <c r="B152" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D152" s="1">
         <v>50</v>
@@ -3939,11 +3774,11 @@
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>131</v>
+      <c r="B153" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D153" s="1">
         <v>51</v>
@@ -3956,11 +3791,11 @@
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D154" s="1">
         <v>52</v>
@@ -3973,11 +3808,11 @@
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>183</v>
+      <c r="B155" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D155" s="1">
         <v>59</v>
@@ -3990,11 +3825,11 @@
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>235</v>
+      <c r="B156" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D156" s="1">
         <v>31</v>
@@ -4007,11 +3842,11 @@
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>237</v>
+      <c r="B157" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D157" s="1">
         <v>32</v>
@@ -4024,11 +3859,11 @@
       <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>225</v>
+      <c r="B158" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D158" s="1">
         <v>33</v>
@@ -4041,11 +3876,11 @@
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>99</v>
+      <c r="B159" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D159" s="1">
         <v>14</v>
@@ -4058,11 +3893,11 @@
       <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>188</v>
+      <c r="B160" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D160" s="1">
         <v>60</v>
@@ -4075,11 +3910,11 @@
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>187</v>
+      <c r="B161" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D161" s="1">
         <v>61</v>
@@ -4092,11 +3927,11 @@
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>141</v>
+      <c r="B162" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D162" s="1">
         <v>53</v>
@@ -4109,11 +3944,11 @@
       <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>190</v>
+      <c r="B163" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D163" s="1">
         <v>54</v>
@@ -4126,11 +3961,11 @@
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>154</v>
+      <c r="B164" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D164" s="1">
         <v>62</v>
@@ -4143,11 +3978,11 @@
       <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>121</v>
+      <c r="B165" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D165" s="1">
         <v>15</v>
@@ -4160,11 +3995,11 @@
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D166" s="1">
         <v>63</v>
@@ -4177,11 +4012,11 @@
       <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D167" s="1">
         <v>16</v>
@@ -4194,11 +4029,11 @@
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D168" s="1">
         <v>64</v>
@@ -4211,11 +4046,11 @@
       <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>157</v>
+      <c r="B169" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D169" s="1">
         <v>65</v>
@@ -4228,11 +4063,11 @@
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D170" s="1">
         <v>55</v>
@@ -4245,11 +4080,11 @@
       <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>87</v>
+      <c r="B171" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D171" s="1">
         <v>66</v>
@@ -4262,11 +4097,11 @@
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>191</v>
+      <c r="B172" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D172" s="1">
         <v>17</v>
@@ -4279,11 +4114,11 @@
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>147</v>
+      <c r="B173" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D173" s="1">
         <v>67</v>
@@ -4296,11 +4131,11 @@
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>143</v>
+      <c r="B174" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D174" s="1">
         <v>68</v>
@@ -4313,11 +4148,11 @@
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>180</v>
+      <c r="B175" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D175" s="1">
         <v>69</v>
@@ -4330,11 +4165,11 @@
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>122</v>
+      <c r="B176" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D176" s="1">
         <v>18</v>
@@ -4347,11 +4182,11 @@
       <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>211</v>
+      <c r="B177" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D177" s="1">
         <v>56</v>
@@ -4364,11 +4199,11 @@
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>194</v>
+      <c r="B178" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D178" s="1">
         <v>70</v>
@@ -4381,11 +4216,11 @@
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>210</v>
+      <c r="B179" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D179" s="1">
         <v>57</v>
@@ -4398,11 +4233,11 @@
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="6" t="s">
-        <v>242</v>
+      <c r="B180" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D180" s="1">
         <v>34</v>
@@ -4415,11 +4250,11 @@
       <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>255</v>
+      <c r="B181" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D181" s="1">
         <v>35</v>
@@ -4432,11 +4267,11 @@
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>145</v>
+      <c r="B182" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D182" s="1">
         <v>71</v>
@@ -4449,11 +4284,11 @@
       <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>78</v>
+      <c r="B183" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D183" s="1">
         <v>58</v>
@@ -4466,11 +4301,11 @@
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D184" s="1">
         <v>72</v>
@@ -4483,11 +4318,11 @@
       <c r="A185" s="1">
         <v>184</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>201</v>
+      <c r="B185" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D185" s="1">
         <v>19</v>
@@ -4500,11 +4335,11 @@
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>204</v>
+      <c r="B186" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D186" s="1">
         <v>20</v>
@@ -4517,11 +4352,11 @@
       <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>152</v>
+      <c r="B187" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D187" s="1">
         <v>21</v>
@@ -4534,11 +4369,11 @@
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>196</v>
+      <c r="B188" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D188" s="1">
         <v>59</v>
@@ -4551,11 +4386,11 @@
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>213</v>
+      <c r="B189" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D189" s="1">
         <v>22</v>
@@ -4568,11 +4403,11 @@
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>256</v>
+      <c r="B190" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D190" s="1">
         <v>23</v>
@@ -4585,11 +4420,11 @@
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>257</v>
+      <c r="B191" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D191" s="1">
         <v>60</v>
@@ -4602,11 +4437,11 @@
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D192" s="1">
         <v>73</v>
@@ -4619,11 +4454,11 @@
       <c r="A193" s="1">
         <v>192</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>153</v>
+      <c r="B193" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D193" s="1">
         <v>24</v>
@@ -4636,11 +4471,11 @@
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>245</v>
+      <c r="B194" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D194" s="1">
         <v>74</v>
@@ -4653,11 +4488,11 @@
       <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D195" s="1">
         <v>25</v>
@@ -4670,11 +4505,11 @@
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="6" t="s">
-        <v>205</v>
+      <c r="B196" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D196" s="1">
         <v>75</v>
@@ -4687,11 +4522,11 @@
       <c r="A197" s="1">
         <v>196</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>226</v>
+      <c r="B197" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D197" s="1">
         <v>26</v>
@@ -4704,11 +4539,11 @@
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>218</v>
+      <c r="B198" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D198" s="1">
         <v>61</v>
@@ -4721,11 +4556,11 @@
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>208</v>
+      <c r="B199" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D199" s="1">
         <v>62</v>
@@ -4738,11 +4573,11 @@
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>246</v>
+      <c r="B200" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D200" s="1">
         <v>76</v>
@@ -4755,11 +4590,11 @@
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>202</v>
+      <c r="B201" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D201" s="1">
         <v>77</v>
@@ -4772,11 +4607,11 @@
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>95</v>
+      <c r="B202" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D202" s="1">
         <v>78</v>
@@ -4789,11 +4624,11 @@
       <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>198</v>
+      <c r="B203" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D203" s="1">
         <v>63</v>
@@ -4806,11 +4641,11 @@
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>193</v>
+      <c r="B204" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D204" s="1">
         <v>79</v>
@@ -4823,11 +4658,11 @@
       <c r="A205" s="1">
         <v>204</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>136</v>
+      <c r="B205" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D205" s="1">
         <v>64</v>
@@ -4840,11 +4675,11 @@
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>142</v>
+      <c r="B206" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D206" s="1">
         <v>65</v>
@@ -4857,11 +4692,11 @@
       <c r="A207" s="1">
         <v>206</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>220</v>
+      <c r="B207" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D207" s="1">
         <v>80</v>
@@ -4874,11 +4709,11 @@
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>135</v>
+      <c r="B208" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D208" s="1">
         <v>81</v>
@@ -4891,11 +4726,11 @@
       <c r="A209" s="1">
         <v>208</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>221</v>
+      <c r="B209" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D209" s="1">
         <v>82</v>
@@ -4908,11 +4743,11 @@
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>155</v>
+      <c r="B210" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D210" s="1">
         <v>27</v>
@@ -4925,11 +4760,11 @@
       <c r="A211" s="1">
         <v>210</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>250</v>
+      <c r="B211" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D211" s="1">
         <v>83</v>
@@ -4942,11 +4777,11 @@
       <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="6" t="s">
-        <v>249</v>
+      <c r="B212" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D212" s="1">
         <v>66</v>
@@ -4959,11 +4794,11 @@
       <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>244</v>
+      <c r="B213" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D213" s="1">
         <v>28</v>
@@ -4976,11 +4811,11 @@
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>259</v>
+      <c r="B214" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D214" s="1">
         <v>84</v>
@@ -4993,11 +4828,11 @@
       <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>203</v>
+      <c r="B215" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D215" s="1">
         <v>67</v>
@@ -5010,11 +4845,11 @@
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="6" t="s">
-        <v>212</v>
+      <c r="B216" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D216" s="1">
         <v>85</v>
@@ -5027,11 +4862,11 @@
       <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>227</v>
+      <c r="B217" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D217" s="1">
         <v>29</v>
@@ -5044,11 +4879,11 @@
       <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="6" t="s">
-        <v>140</v>
+      <c r="B218" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D218" s="1">
         <v>68</v>
@@ -5061,11 +4896,11 @@
       <c r="A219" s="1">
         <v>218</v>
       </c>
-      <c r="B219" s="6" t="s">
-        <v>151</v>
+      <c r="B219" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D219" s="1">
         <v>30</v>
@@ -5078,11 +4913,11 @@
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="6" t="s">
-        <v>247</v>
+      <c r="B220" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D220" s="1">
         <v>69</v>
@@ -5095,11 +4930,11 @@
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D221" s="1">
         <v>86</v>
@@ -5112,11 +4947,11 @@
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>195</v>
+      <c r="B222" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D222" s="1">
         <v>87</v>
@@ -5129,11 +4964,11 @@
       <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>214</v>
+      <c r="B223" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D223" s="1">
         <v>88</v>
@@ -5146,11 +4981,11 @@
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D224" s="1">
         <v>31</v>
@@ -5163,11 +4998,11 @@
       <c r="A225" s="1">
         <v>224</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>206</v>
+      <c r="B225" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D225" s="1">
         <v>70</v>
@@ -5180,11 +5015,11 @@
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>231</v>
+      <c r="B226" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D226" s="1">
         <v>32</v>
@@ -5197,11 +5032,11 @@
       <c r="A227" s="1">
         <v>226</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>219</v>
+      <c r="B227" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D227" s="1">
         <v>33</v>
@@ -5214,11 +5049,11 @@
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>234</v>
+      <c r="B228" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D228" s="1">
         <v>89</v>
@@ -5231,11 +5066,11 @@
       <c r="A229" s="1">
         <v>228</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>216</v>
+      <c r="B229" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D229" s="1">
         <v>90</v>
@@ -5248,11 +5083,11 @@
       <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>258</v>
+      <c r="B230" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D230" s="1">
         <v>34</v>
@@ -5265,11 +5100,11 @@
       <c r="A231" s="1">
         <v>230</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>240</v>
+      <c r="B231" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D231" s="1">
         <v>71</v>
@@ -5282,11 +5117,11 @@
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="6" t="s">
-        <v>229</v>
+      <c r="B232" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D232" s="1">
         <v>91</v>
@@ -5299,11 +5134,11 @@
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>260</v>
+      <c r="B233" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D233" s="1">
         <v>72</v>
@@ -5316,11 +5151,11 @@
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>251</v>
+      <c r="B234" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D234" s="1">
         <v>92</v>
@@ -5333,11 +5168,11 @@
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>224</v>
+      <c r="B235" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D235" s="1">
         <v>93</v>
@@ -5350,11 +5185,11 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>228</v>
+      <c r="B236" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D236" s="1">
         <v>94</v>
@@ -5367,11 +5202,11 @@
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>239</v>
+      <c r="B237" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D237" s="1">
         <v>73</v>
@@ -5384,11 +5219,11 @@
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>217</v>
+      <c r="B238" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D238" s="1">
         <v>35</v>
@@ -5401,11 +5236,11 @@
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>215</v>
+      <c r="B239" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D239" s="1">
         <v>36</v>
@@ -5418,11 +5253,11 @@
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="6" t="s">
-        <v>243</v>
+      <c r="B240" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D240" s="1">
         <v>74</v>
@@ -5435,11 +5270,11 @@
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>197</v>
+      <c r="B241" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D241" s="1">
         <v>75</v>
@@ -5452,11 +5287,11 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>209</v>
+      <c r="B242" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D242" s="1">
         <v>76</v>
@@ -5469,11 +5304,11 @@
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>248</v>
+      <c r="B243" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D243" s="1">
         <v>77</v>
@@ -5486,11 +5321,11 @@
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>241</v>
+      <c r="B244" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D244" s="1">
         <v>78</v>
@@ -5503,11 +5338,11 @@
       <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>236</v>
+      <c r="B245" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D245" s="1">
         <v>95</v>
@@ -5520,11 +5355,11 @@
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>232</v>
+      <c r="B246" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D246" s="1">
         <v>96</v>
@@ -5537,11 +5372,11 @@
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>230</v>
+      <c r="B247" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D247" s="1">
         <v>97</v>
@@ -5554,11 +5389,11 @@
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>233</v>
+      <c r="B248" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D248" s="1">
         <v>37</v>
@@ -5571,11 +5406,11 @@
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>223</v>
+      <c r="B249" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D249" s="1">
         <v>79</v>
@@ -5588,11 +5423,11 @@
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>253</v>
+      <c r="B250" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D250" s="1">
         <v>38</v>
@@ -5605,11 +5440,11 @@
       <c r="A251" s="1">
         <v>250</v>
       </c>
-      <c r="B251" s="6" t="s">
-        <v>238</v>
+      <c r="B251" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D251" s="1">
         <v>80</v>
